--- a/data/Stock Group.xlsx
+++ b/data/Stock Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B409E1-1119-4CD1-B3C4-3169249051D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2158CD-37AE-41D5-AD2A-34D9ABBF650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5745" windowWidth="15990" windowHeight="24840" firstSheet="3" activeTab="3" xr2:uid="{605626FD-46CC-4AD2-A4FA-02B1F387D961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{605626FD-46CC-4AD2-A4FA-02B1F387D961}"/>
   </bookViews>
   <sheets>
     <sheet name="SSim_Boolean" sheetId="3" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>DOM: Deadwood</t>
+  </si>
+  <si>
+    <t>Carbon in all deadwood pools</t>
+  </si>
+  <si>
+    <t>DOM: Down Deadwood</t>
+  </si>
+  <si>
+    <t>Carbon stores in down deadwood</t>
+  </si>
+  <si>
+    <t>DOM: Litter</t>
+  </si>
+  <si>
+    <t>DOM: Soil</t>
+  </si>
+  <si>
+    <t>DOM: Standing Deadwood</t>
+  </si>
+  <si>
+    <t>Carbon stored in standing deadwood</t>
   </si>
 </sst>
 </file>
@@ -230,30 +257,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -280,6 +283,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -294,14 +321,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07FA16B4-BEFC-4F94-BF9F-6D4126AAB70D}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07FA16B4-BEFC-4F94-BF9F-6D4126AAB70D}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{7F964243-00DB-43EE-BDC5-410E6FE59C15}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{96367A6C-C7B9-4EB4-8680-D89D3A118C4B}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BEA6A4B9-7E22-4FFE-8C35-826570C635E1}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7FAE06BB-94AC-43E7-8433-8444458BE928}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F3DB7941-4784-4DAA-B3A9-6E152D30D835}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{7BFDBE4A-7B60-4569-9A96-8F065ECC0EE3}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{96367A6C-C7B9-4EB4-8680-D89D3A118C4B}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BEA6A4B9-7E22-4FFE-8C35-826570C635E1}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7FAE06BB-94AC-43E7-8433-8444458BE928}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F3DB7941-4784-4DAA-B3A9-6E152D30D835}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7BFDBE4A-7B60-4569-9A96-8F065ECC0EE3}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -752,11 +779,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2569715-25A5-44F5-9732-F0FC1890FAFD}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +791,7 @@
     <col min="1" max="1" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -784,57 +811,96 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
